--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53687D45-8B41-441D-83F8-C986A253C690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB80C5-46FE-470A-854F-B5B9B25310EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
+    <sheet name="nur INA" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -69,17 +70,52 @@
   </si>
   <si>
     <t>Tol</t>
+  </si>
+  <si>
+    <t>INA RG [kOhm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using INA gain of </t>
+  </si>
+  <si>
+    <t>R2 [kOhm]</t>
+  </si>
+  <si>
+    <t>Remaining Gain (VGA)</t>
+  </si>
+  <si>
+    <t>VGA RF [kOhm]</t>
+  </si>
+  <si>
+    <t>RT [kOhm]</t>
+  </si>
+  <si>
+    <t>VGA D (absolute) [-]</t>
+  </si>
+  <si>
+    <t>VGA D (rounded) [-]</t>
+  </si>
+  <si>
+    <t>Actual VGA Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,21 +141,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,11 +435,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EE15B-76DB-48AD-8A28-EECC0E4E87EC}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2*5</f>
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <f>5000/C2</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="E2">
+        <f>9.9/($B$10-1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f>D2/$B$10</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="G2">
+        <f>(F2-1)*$B$12</f>
+        <v>12.831428571428573</v>
+      </c>
+      <c r="H2">
+        <f>1024*$B$12*(F2-1)/$B$13</f>
+        <v>656.96914285714297</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.FLOOR.MATH(H2)</f>
+        <v>656</v>
+      </c>
+      <c r="J2">
+        <f>1+ ((I2/1024)*$B$13)/$B$12</f>
+        <v>3.5676352705410821</v>
+      </c>
+      <c r="K2" s="4">
+        <f>(F2-J2)/F2</f>
+        <v>1.0621242484970671E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C7" si="0">B3*5</f>
+        <v>16.25</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">5000/C3</f>
+        <v>307.69230769230768</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="2">9.9/($B$10-1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="3">D3/$B$10</f>
+        <v>3.0769230769230766</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="4">(F3-1)*$B$12</f>
+        <v>10.363846153846152</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="5">1024*$B$12*(F3-1)/$B$13</f>
+        <v>530.628923076923</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="6">_xlfn.FLOOR.MATH(H3)</f>
+        <v>530</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="7">1+ ((I3/1024)*$B$13)/$B$12</f>
+        <v>3.0744614228456912</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K7" si="8">(F3-J3)/F3</f>
+        <v>8.0003757515025866E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>11.643333333333333</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>596.13866666666661</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>596</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="7"/>
+        <v>3.3327905811623246</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6282565130252281E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>370.37037037037038</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>13.491481481481483</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>690.76385185185188</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>3.7007139278557113</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0723947895795507E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>425.531914893617</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>16.244042553191491</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>831.69497872340435</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>831</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>4.2525989478957911</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="8"/>
+        <v>6.3924724448908069E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>11.643333333333333</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>596.13866666666661</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>596</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>3.3327905811623246</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6282565130252281E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <f>AVERAGE(D2:D7)</f>
+        <v>354.56735279430319</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,11 +859,11 @@
         <v>357.14285714285717</v>
       </c>
       <c r="E2">
-        <f>9.9/(D2-1)</f>
+        <f t="shared" ref="E2:E8" si="0">9.9/(D2-1)</f>
         <v>2.779783393501805E-2</v>
       </c>
       <c r="F2">
-        <f>D2/301</f>
+        <f t="shared" ref="F2:F7" si="1">D2/301</f>
         <v>1.1865211200759374</v>
       </c>
       <c r="G2">
@@ -481,9 +878,9 @@
         <f>D2/$I$10</f>
         <v>1.0173077408120386</v>
       </c>
-      <c r="J2">
-        <f>MAX(D2-$H$10,D2-$I$10)</f>
-        <v>6.0761712079034851</v>
+      <c r="J2" s="4">
+        <f>MAX(D2-$H$10,D2-$I$10)/D2</f>
+        <v>1.7013279382129758E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -494,36 +891,36 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" si="0">B3*5</f>
+        <f t="shared" ref="C3:C7" si="2">B3*5</f>
         <v>16.25</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="1">5000/C3</f>
+        <f t="shared" ref="D3:D7" si="3">5000/C3</f>
         <v>307.69230769230768</v>
       </c>
       <c r="E3">
-        <f>9.9/(D3-1)</f>
+        <f t="shared" si="0"/>
         <v>3.2279909706546275E-2</v>
       </c>
       <c r="F3">
-        <f>D3/301</f>
+        <f t="shared" si="1"/>
         <v>1.0222335803731153</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">D3/$D$8</f>
+        <f t="shared" ref="G3:G7" si="4">D3/$D$8</f>
         <v>0.86779649978324613</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="3">D3/$H$10</f>
+        <f t="shared" ref="H3:H7" si="5">D3/$H$10</f>
         <v>0.8591427655206676</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="4">D3/$I$10</f>
+        <f t="shared" ref="I3:I7" si="6">D3/$I$10</f>
         <v>0.8764497459303715</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="5">MAX(D3-$H$10,D3-$I$10)</f>
-        <v>-43.374378242646003</v>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J7" si="7">MAX(D3-$H$10,D3-$I$10)/D3</f>
+        <v>-0.14096672928859952</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -534,36 +931,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
+        <v>2.978936810431294E-2</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="E4">
-        <f>9.9/(D4-1)</f>
-        <v>2.978936810431294E-2</v>
-      </c>
-      <c r="F4">
-        <f>D4/301</f>
         <v>1.1074197120708749</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94011287476518324</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93073799598072315</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.94948722475790248</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>-17.733352601620368</v>
+      <c r="J4" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.3200057804861103E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -574,36 +971,36 @@
         <v>2.7</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>370.37037037037038</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="D5" s="1">
+        <v>2.6802366389250976E-2</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>370.37037037037038</v>
-      </c>
-      <c r="E5">
-        <f>9.9/(D5-1)</f>
-        <v>2.6802366389250976E-2</v>
-      </c>
-      <c r="F5">
-        <f>D5/301</f>
         <v>1.2304663467454164</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0445698608502036</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0341533288674702</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0549858052865584</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>19.303684435416699</v>
+      <c r="J5" s="4">
+        <f t="shared" si="7"/>
+        <v>5.2119947975625087E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -614,36 +1011,36 @@
         <v>2.35</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>425.531914893617</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>11.75</v>
-      </c>
-      <c r="D6" s="1">
+        <v>2.3319801533603971E-2</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>425.531914893617</v>
-      </c>
-      <c r="E6">
-        <f>9.9/(D6-1)</f>
-        <v>2.3319801533603971E-2</v>
-      </c>
-      <c r="F6">
-        <f>D6/301</f>
         <v>1.4137272920053721</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2001440954449147</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1881761650817744</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2121113507547692</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>74.465228958663317</v>
+      <c r="J6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.1749932880528588</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -654,36 +1051,36 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
+        <v>2.978936810431294E-2</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="E7">
-        <f>9.9/(D7-1)</f>
-        <v>2.978936810431294E-2</v>
-      </c>
-      <c r="F7">
-        <f>D7/301</f>
         <v>1.1074197120708749</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94011287476518324</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93073799598072315</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.94948722475790248</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>-17.733352601620368</v>
+      <c r="J7" s="4">
+        <f t="shared" si="7"/>
+        <v>-5.3200057804861103E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -692,7 +1089,7 @@
         <v>354.56735279430319</v>
       </c>
       <c r="E8" s="2">
-        <f>9.9/(D8-1)</f>
+        <f t="shared" si="0"/>
         <v>2.80003227723335E-2</v>
       </c>
     </row>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB80C5-46FE-470A-854F-B5B9B25310EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1DA83-CF69-492B-B476-57BE5E9724A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
-    <sheet name="nur INA" sheetId="1" r:id="rId2"/>
+    <sheet name="Battery Estimate" sheetId="4" r:id="rId2"/>
+    <sheet name="Load Cell Current" sheetId="3" r:id="rId3"/>
+    <sheet name="nur INA" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -97,6 +99,60 @@
   </si>
   <si>
     <t>Actual VGA Gain</t>
+  </si>
+  <si>
+    <t>I @5V [mA]</t>
+  </si>
+  <si>
+    <t>I @10V [mA]</t>
+  </si>
+  <si>
+    <t>Bridge Resistance [Ohm]</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>I_typ [mA]</t>
+  </si>
+  <si>
+    <t>I_max [mA]</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Load Cell</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>INA</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>Digi Poti</t>
+  </si>
+  <si>
+    <t>Estimate Typ [h]</t>
+  </si>
+  <si>
+    <t>Estimate Min [h]</t>
+  </si>
+  <si>
+    <t>DS ADC</t>
+  </si>
+  <si>
+    <t>Total I_typ</t>
+  </si>
+  <si>
+    <t>Total I_max</t>
+  </si>
+  <si>
+    <t>VREF</t>
   </si>
 </sst>
 </file>
@@ -106,7 +162,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -145,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -154,7 +210,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EE15B-76DB-48AD-8A28-EECC0E4E87EC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,6 +852,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D73221-315D-4403-8AB8-0BEE10775D1A}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>14.28</v>
+      </c>
+      <c r="C2">
+        <v>28.57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:B100)</f>
+        <v>22.256</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <f>SUM(B3:B100)</f>
+        <v>7.976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C2:C100)</f>
+        <v>38.121999999999993</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <f>SUM(C3:C100)</f>
+        <v>9.5520000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.45</v>
+      </c>
+      <c r="C5">
+        <v>0.51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <f>H4/H3</f>
+        <v>131.15786160222447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <f>H4/H2</f>
+        <v>224.65851905104242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0.38</v>
+      </c>
+      <c r="C8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0FFB42-0A8F-436F-9B31-E7D1096635CF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+      <c r="C2">
+        <f>5/$B2 * 1000</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="D2">
+        <f>10/$B2 * 1000</f>
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">5/$B3 * 1000</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">10/$B3 * 1000</f>
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>175</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>175</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1DA83-CF69-492B-B476-57BE5E9724A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE21C4-555F-4E15-A848-0BEDCFC995FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
     <sheet name="Battery Estimate" sheetId="4" r:id="rId2"/>
-    <sheet name="Load Cell Current" sheetId="3" r:id="rId3"/>
-    <sheet name="nur INA" sheetId="1" r:id="rId4"/>
+    <sheet name="PP Noise Estimate" sheetId="5" r:id="rId3"/>
+    <sheet name="Load Cell Current" sheetId="3" r:id="rId4"/>
+    <sheet name="nur INA" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -153,6 +154,21 @@
   </si>
   <si>
     <t>VREF</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [uVpp]</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Total Noise</t>
   </si>
 </sst>
 </file>
@@ -498,7 +514,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D73221-315D-4403-8AB8-0BEE10775D1A}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1009,6 +1025,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E15E3-0DEF-4F04-8261-22049188EEE9}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <f>(B3*C3+B4)*C4 + B5</f>
+        <v>40.712500000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>9.9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0FFB42-0A8F-436F-9B31-E7D1096635CF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1141,7 +1234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE21C4-555F-4E15-A848-0BEDCFC995FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964A87AD-ECF9-42B4-B251-58F98B731521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
-    <sheet name="Battery Estimate" sheetId="4" r:id="rId2"/>
+    <sheet name="M-Chain Battery Estimate" sheetId="4" r:id="rId2"/>
     <sheet name="PP Noise Estimate" sheetId="5" r:id="rId3"/>
-    <sheet name="Load Cell Current" sheetId="3" r:id="rId4"/>
-    <sheet name="nur INA" sheetId="1" r:id="rId5"/>
+    <sheet name="Load Cell Resolution" sheetId="6" r:id="rId4"/>
+    <sheet name="Load Cell Current" sheetId="3" r:id="rId5"/>
+    <sheet name="nur INA" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -169,6 +170,24 @@
   </si>
   <si>
     <t>Total Noise</t>
+  </si>
+  <si>
+    <t>Noise Free Bits</t>
+  </si>
+  <si>
+    <t>Noise Free Resolution</t>
+  </si>
+  <si>
+    <t>Resolution [gf]</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>I_spec</t>
   </si>
 </sst>
 </file>
@@ -514,7 +533,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D73221-315D-4403-8AB8-0BEE10775D1A}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +902,7 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -893,8 +912,11 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -909,17 +931,17 @@
       </c>
       <c r="H2">
         <f>SUM(B2:B100)</f>
-        <v>22.256</v>
+        <v>23.350999999999999</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2">
         <f>SUM(B3:B100)</f>
-        <v>7.976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.0710000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -929,22 +951,25 @@
       <c r="C3">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3">
         <f>SUM(C2:C100)</f>
-        <v>38.121999999999993</v>
+        <v>39.391999999999996</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3">
         <f>SUM(C3:C100)</f>
-        <v>9.5520000000000014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.822000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -954,14 +979,27 @@
       <c r="C4">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <f>SUM(D3:D8)</f>
+        <v>14.005000000000001</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -971,15 +1009,18 @@
       <c r="C5">
         <v>0.51</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5">
         <f>H4/H3</f>
-        <v>131.15786160222447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126.92932575142162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -989,26 +1030,32 @@
       <c r="C6">
         <v>2E-3</v>
       </c>
+      <c r="D6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6">
         <f>H4/H2</f>
-        <v>224.65851905104242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>214.12359213738171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0.14499999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="C7">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.43</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1017,6 +1064,9 @@
       </c>
       <c r="C8">
         <v>0.57999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1026,13 +1076,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7E15E3-0DEF-4F04-8261-22049188EEE9}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1070,8 +1123,8 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <f>(B3*C3+B4)*C4 + B5</f>
-        <v>40.712500000000006</v>
+        <f>(B3*C3+B4)*C4 + B5 +B6</f>
+        <v>40.057900000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1137,38 @@
       <c r="C4">
         <v>4.25</v>
       </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <f>5000000/F3</f>
+        <v>124819.32402846878</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5">
-        <v>9.9</v>
+        <v>6.3954000000000004</v>
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <f>LOG(F4,2)</f>
+        <v>16.929481778203463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
@@ -1102,11 +1177,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB290-A57C-40B1-A81B-7383900C8353}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B2">
+        <f>(A2/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>1.201737E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(A3/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>1.6023160000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>(A4/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>0.1602316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <f>(A5/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>0.36052110000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <f>(A6/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>2.0028950000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B7">
+        <f>(A7/'PP Noise Estimate'!$F$4)*1000</f>
+        <v>24.034740000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0FFB42-0A8F-436F-9B31-E7D1096635CF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964A87AD-ECF9-42B4-B251-58F98B731521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7790-F564-401B-B7AD-63873A008677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>I_spec</t>
+  </si>
+  <si>
+    <t>TFT LCD</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Measurement Chain</t>
+  </si>
+  <si>
+    <t>V_reg</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -888,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D73221-315D-4403-8AB8-0BEE10775D1A}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,6 +930,9 @@
       <c r="D1" t="s">
         <v>48</v>
       </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -931,14 +949,14 @@
       </c>
       <c r="H2">
         <f>SUM(B2:B100)</f>
-        <v>23.350999999999999</v>
+        <v>416.351</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="K2">
         <f>SUM(B3:B100)</f>
-        <v>9.0710000000000015</v>
+        <v>402.07100000000003</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1038,7 +1056,7 @@
       </c>
       <c r="H6">
         <f>H4/H2</f>
-        <v>214.12359213738171</v>
+        <v>12.009098092715041</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1067,6 +1085,38 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7790-F564-401B-B7AD-63873A008677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3FBAD-7CB4-48D0-A850-2C9F887F7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -263,6 +263,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EE15B-76DB-48AD-8A28-EECC0E4E87EC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,275 +604,279 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>3000</v>
+        <v>0.15</v>
       </c>
       <c r="B2" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <f>B2*5</f>
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7">
         <f>5000/C2</f>
-        <v>357.14285714285717</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="E2">
         <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>D2/$B$10</f>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="G2">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G2" s="6">
         <f>(F2-1)*$B$12</f>
-        <v>12.831428571428573</v>
+        <v>11.643333333333333</v>
       </c>
       <c r="H2">
         <f>1024*$B$12*(F2-1)/$B$13</f>
-        <v>656.96914285714297</v>
+        <v>596.13866666666661</v>
       </c>
       <c r="I2">
         <f>_xlfn.FLOOR.MATH(H2)</f>
-        <v>656</v>
+        <v>596</v>
       </c>
       <c r="J2">
         <f>1+ ((I2/1024)*$B$13)/$B$12</f>
-        <v>3.5676352705410821</v>
+        <v>3.3327905811623246</v>
       </c>
       <c r="K2" s="4">
         <f>(F2-J2)/F2</f>
-        <v>1.0621242484970671E-3</v>
+        <v>1.6282565130252281E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" si="0">B3*5</f>
-        <v>16.25</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="1">5000/C3</f>
-        <v>307.69230769230768</v>
+        <f>B3*5</f>
+        <v>11.75</v>
+      </c>
+      <c r="D3" s="7">
+        <f>5000/C3</f>
+        <v>425.531914893617</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">9.9/($B$10-1)</f>
+        <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="3">D3/$B$10</f>
-        <v>3.0769230769230766</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="4">(F3-1)*$B$12</f>
-        <v>10.363846153846152</v>
+      <c r="F3" s="6">
+        <f>D3/$B$10</f>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="G3" s="6">
+        <f>(F3-1)*$B$12</f>
+        <v>16.244042553191491</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="5">1024*$B$12*(F3-1)/$B$13</f>
-        <v>530.628923076923</v>
+        <f>1024*$B$12*(F3-1)/$B$13</f>
+        <v>831.69497872340435</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="6">_xlfn.FLOOR.MATH(H3)</f>
-        <v>530</v>
+        <f>_xlfn.FLOOR.MATH(H3)</f>
+        <v>831</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="7">1+ ((I3/1024)*$B$13)/$B$12</f>
-        <v>3.0744614228456912</v>
+        <f>1+ ((I3/1024)*$B$13)/$B$12</f>
+        <v>4.2525989478957911</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K7" si="8">(F3-J3)/F3</f>
-        <v>8.0003757515025866E-4</v>
+        <f>(F3-J3)/F3</f>
+        <v>6.3924724448908069E-4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
+        <f>B4*5</f>
+        <v>13.5</v>
+      </c>
+      <c r="D4" s="7">
+        <f>5000/C4</f>
+        <v>370.37037037037038</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>11.643333333333333</v>
+      <c r="F4" s="6">
+        <f>D4/$B$10</f>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="G4" s="6">
+        <f>(F4-1)*$B$12</f>
+        <v>13.491481481481483</v>
       </c>
       <c r="H4">
-        <f t="shared" si="5"/>
-        <v>596.13866666666661</v>
+        <f>1024*$B$12*(F4-1)/$B$13</f>
+        <v>690.76385185185188</v>
       </c>
       <c r="I4">
-        <f t="shared" si="6"/>
-        <v>596</v>
+        <f>_xlfn.FLOOR.MATH(H4)</f>
+        <v>690</v>
       </c>
       <c r="J4">
-        <f t="shared" si="7"/>
-        <v>3.3327905811623246</v>
+        <f>1+ ((I4/1024)*$B$13)/$B$12</f>
+        <v>3.7007139278557113</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6282565130252281E-4</v>
+        <f>(F4-J4)/F4</f>
+        <v>8.0723947895795507E-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>370.37037037037038</v>
+        <f>B5*5</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <f>5000/C5</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>13.491481481481483</v>
+      <c r="F5" s="6">
+        <f>D5/$B$10</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G5" s="6">
+        <f>(F5-1)*$B$12</f>
+        <v>11.643333333333333</v>
       </c>
       <c r="H5">
-        <f t="shared" si="5"/>
-        <v>690.76385185185188</v>
+        <f>1024*$B$12*(F5-1)/$B$13</f>
+        <v>596.13866666666661</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>690</v>
+        <f>_xlfn.FLOOR.MATH(H5)</f>
+        <v>596</v>
       </c>
       <c r="J5">
-        <f t="shared" si="7"/>
-        <v>3.7007139278557113</v>
+        <f>1+ ((I5/1024)*$B$13)/$B$12</f>
+        <v>3.3327905811623246</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="8"/>
-        <v>8.0723947895795507E-4</v>
+        <f>(F5-J5)/F5</f>
+        <v>1.6282565130252281E-4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>11.75</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>425.531914893617</v>
+        <f>B6*5</f>
+        <v>16.25</v>
+      </c>
+      <c r="D6" s="7">
+        <f>5000/C6</f>
+        <v>307.69230769230768</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>4.2553191489361701</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>16.244042553191491</v>
+      <c r="F6" s="6">
+        <f>D6/$B$10</f>
+        <v>3.0769230769230766</v>
+      </c>
+      <c r="G6" s="6">
+        <f>(F6-1)*$B$12</f>
+        <v>10.363846153846152</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
-        <v>831.69497872340435</v>
+        <f>1024*$B$12*(F6-1)/$B$13</f>
+        <v>530.628923076923</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>831</v>
+        <f>_xlfn.FLOOR.MATH(H6)</f>
+        <v>530</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
-        <v>4.2525989478957911</v>
+        <f>1+ ((I6/1024)*$B$13)/$B$12</f>
+        <v>3.0744614228456912</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="8"/>
-        <v>6.3924724448908069E-4</v>
+        <f>(F6-J6)/F6</f>
+        <v>8.0003757515025866E-4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
+        <f>B7*5</f>
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <f>5000/C7</f>
+        <v>357.14285714285717</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f>9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>11.643333333333333</v>
+      <c r="F7" s="6">
+        <f>D7/$B$10</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="G7" s="6">
+        <f>(F7-1)*$B$12</f>
+        <v>12.831428571428573</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
-        <v>596.13866666666661</v>
+        <f>1024*$B$12*(F7-1)/$B$13</f>
+        <v>656.96914285714297</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>596</v>
+        <f>_xlfn.FLOOR.MATH(H7)</f>
+        <v>656</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
-        <v>3.3327905811623246</v>
+        <f>1+ ((I7/1024)*$B$13)/$B$12</f>
+        <v>3.5676352705410821</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6282565130252281E-4</v>
+        <f>(F7-J7)/F7</f>
+        <v>1.0621242484970671E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>14.25</v>
+      </c>
       <c r="D8" s="3">
         <f>AVERAGE(D2:D7)</f>
-        <v>354.56735279430319</v>
+        <v>354.56735279430313</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E3:E8" si="0">9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -897,6 +905,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -905,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D73221-315D-4403-8AB8-0BEE10775D1A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3FBAD-7CB4-48D0-A850-2C9F887F7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B8579-521C-46C5-84F0-9C611DCE9AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INA + VGA" sheetId="2" r:id="rId1"/>
+    <sheet name="Gain INA + VGA" sheetId="2" r:id="rId1"/>
     <sheet name="M-Chain Battery Estimate" sheetId="4" r:id="rId2"/>
     <sheet name="PP Noise Estimate" sheetId="5" r:id="rId3"/>
     <sheet name="Load Cell Resolution" sheetId="6" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Load Cell [kgf]</t>
   </si>
@@ -203,16 +203,23 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Saturated Output [mV] @10V</t>
+  </si>
+  <si>
+    <t>Required Gain @10V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -268,6 +275,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,25 +557,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EE15B-76DB-48AD-8A28-EECC0E4E87EC}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,31 +586,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.15</v>
       </c>
@@ -610,43 +621,47 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*5</f>
+        <f>$B2*5</f>
         <v>15</v>
       </c>
-      <c r="D2" s="7">
-        <f>5000/C2</f>
+      <c r="D2" s="1">
+        <f>$B2*10</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E7" si="0">5000/C2</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="E2">
-        <f>9.9/($B$10-1)</f>
+      <c r="F2">
+        <f t="shared" ref="F2:F7" si="1">9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
-      <c r="F2" s="6">
-        <f>D2/$B$10</f>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G7" si="2">E2/$B$10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="G2" s="6">
-        <f>(F2-1)*$B$12</f>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H7" si="3">(G2-1)*$B$12</f>
         <v>11.643333333333333</v>
       </c>
-      <c r="H2">
-        <f>1024*$B$12*(F2-1)/$B$13</f>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="4">1024*$B$12*(G2-1)/$B$13</f>
         <v>596.13866666666661</v>
       </c>
-      <c r="I2">
-        <f>_xlfn.FLOOR.MATH(H2)</f>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="5">_xlfn.FLOOR.MATH(I2)</f>
         <v>596</v>
       </c>
-      <c r="J2">
-        <f>1+ ((I2/1024)*$B$13)/$B$12</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="6">1+ ((J2/1024)*$B$13)/$B$12</f>
         <v>3.3327905811623246</v>
       </c>
-      <c r="K2" s="4">
-        <f>(F2-J2)/F2</f>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L7" si="7">(G2-K2)/G2</f>
         <v>1.6282565130252281E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -654,43 +669,47 @@
         <v>2.35</v>
       </c>
       <c r="C3" s="1">
-        <f>B3*5</f>
+        <f t="shared" ref="C3:C7" si="8">$B3*5</f>
         <v>11.75</v>
       </c>
-      <c r="D3" s="7">
-        <f>5000/C3</f>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="9">$B3*10</f>
+        <v>23.5</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
         <v>425.531914893617</v>
       </c>
-      <c r="E3">
-        <f>9.9/($B$10-1)</f>
+      <c r="F3">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F3" s="6">
-        <f>D3/$B$10</f>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
         <v>4.2553191489361701</v>
       </c>
-      <c r="G3" s="6">
-        <f>(F3-1)*$B$12</f>
+      <c r="H3" s="6">
+        <f t="shared" si="3"/>
         <v>16.244042553191491</v>
       </c>
-      <c r="H3">
-        <f>1024*$B$12*(F3-1)/$B$13</f>
+      <c r="I3">
+        <f t="shared" si="4"/>
         <v>831.69497872340435</v>
       </c>
-      <c r="I3">
-        <f>_xlfn.FLOOR.MATH(H3)</f>
+      <c r="J3">
+        <f t="shared" si="5"/>
         <v>831</v>
       </c>
-      <c r="J3">
-        <f>1+ ((I3/1024)*$B$13)/$B$12</f>
+      <c r="K3">
+        <f t="shared" si="6"/>
         <v>4.2525989478957911</v>
       </c>
-      <c r="K3" s="4">
-        <f>(F3-J3)/F3</f>
+      <c r="L3" s="4">
+        <f t="shared" si="7"/>
         <v>6.3924724448908069E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -698,43 +717,47 @@
         <v>2.7</v>
       </c>
       <c r="C4" s="1">
-        <f>B4*5</f>
+        <f t="shared" si="8"/>
         <v>13.5</v>
       </c>
-      <c r="D4" s="7">
-        <f>5000/C4</f>
+      <c r="D4" s="1">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>370.37037037037038</v>
       </c>
-      <c r="E4">
-        <f>9.9/($B$10-1)</f>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
-        <f>D4/$B$10</f>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="G4" s="6">
-        <f>(F4-1)*$B$12</f>
+      <c r="H4" s="6">
+        <f t="shared" si="3"/>
         <v>13.491481481481483</v>
       </c>
-      <c r="H4">
-        <f>1024*$B$12*(F4-1)/$B$13</f>
+      <c r="I4">
+        <f t="shared" si="4"/>
         <v>690.76385185185188</v>
       </c>
-      <c r="I4">
-        <f>_xlfn.FLOOR.MATH(H4)</f>
+      <c r="J4">
+        <f t="shared" si="5"/>
         <v>690</v>
       </c>
-      <c r="J4">
-        <f>1+ ((I4/1024)*$B$13)/$B$12</f>
+      <c r="K4">
+        <f t="shared" si="6"/>
         <v>3.7007139278557113</v>
       </c>
-      <c r="K4" s="4">
-        <f>(F4-J4)/F4</f>
+      <c r="L4" s="4">
+        <f t="shared" si="7"/>
         <v>8.0723947895795507E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45</v>
       </c>
@@ -742,43 +765,47 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>B5*5</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="D5" s="7">
-        <f>5000/C5</f>
+      <c r="D5" s="1">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="E5">
-        <f>9.9/($B$10-1)</f>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5/$B$10</f>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="G5" s="6">
-        <f>(F5-1)*$B$12</f>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
         <v>11.643333333333333</v>
       </c>
-      <c r="H5">
-        <f>1024*$B$12*(F5-1)/$B$13</f>
+      <c r="I5">
+        <f t="shared" si="4"/>
         <v>596.13866666666661</v>
       </c>
-      <c r="I5">
-        <f>_xlfn.FLOOR.MATH(H5)</f>
+      <c r="J5">
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
-      <c r="J5">
-        <f>1+ ((I5/1024)*$B$13)/$B$12</f>
+      <c r="K5">
+        <f t="shared" si="6"/>
         <v>3.3327905811623246</v>
       </c>
-      <c r="K5" s="4">
-        <f>(F5-J5)/F5</f>
+      <c r="L5" s="4">
+        <f t="shared" si="7"/>
         <v>1.6282565130252281E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>250</v>
       </c>
@@ -786,43 +813,47 @@
         <v>3.25</v>
       </c>
       <c r="C6" s="1">
-        <f>B6*5</f>
+        <f t="shared" si="8"/>
         <v>16.25</v>
       </c>
-      <c r="D6" s="7">
-        <f>5000/C6</f>
+      <c r="D6" s="1">
+        <f t="shared" si="9"/>
+        <v>32.5</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>307.69230769230768</v>
       </c>
-      <c r="E6">
-        <f>9.9/($B$10-1)</f>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F6" s="6">
-        <f>D6/$B$10</f>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
         <v>3.0769230769230766</v>
       </c>
-      <c r="G6" s="6">
-        <f>(F6-1)*$B$12</f>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
         <v>10.363846153846152</v>
       </c>
-      <c r="H6">
-        <f>1024*$B$12*(F6-1)/$B$13</f>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>530.628923076923</v>
       </c>
-      <c r="I6">
-        <f>_xlfn.FLOOR.MATH(H6)</f>
+      <c r="J6">
+        <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="J6">
-        <f>1+ ((I6/1024)*$B$13)/$B$12</f>
+      <c r="K6">
+        <f t="shared" si="6"/>
         <v>3.0744614228456912</v>
       </c>
-      <c r="K6" s="4">
-        <f>(F6-J6)/F6</f>
+      <c r="L6" s="4">
+        <f t="shared" si="7"/>
         <v>8.0003757515025866E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3000</v>
       </c>
@@ -830,57 +861,62 @@
         <v>2.8</v>
       </c>
       <c r="C7" s="1">
-        <f>B7*5</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <f>5000/C7</f>
+      <c r="D7" s="1">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>357.14285714285717</v>
       </c>
-      <c r="E7">
-        <f>9.9/($B$10-1)</f>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F7" s="6">
-        <f>D7/$B$10</f>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="G7" s="6">
-        <f>(F7-1)*$B$12</f>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
         <v>12.831428571428573</v>
       </c>
-      <c r="H7">
-        <f>1024*$B$12*(F7-1)/$B$13</f>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>656.96914285714297</v>
       </c>
-      <c r="I7">
-        <f>_xlfn.FLOOR.MATH(H7)</f>
+      <c r="J7">
+        <f t="shared" si="5"/>
         <v>656</v>
       </c>
-      <c r="J7">
-        <f>1+ ((I7/1024)*$B$13)/$B$12</f>
+      <c r="K7">
+        <f t="shared" si="6"/>
         <v>3.5676352705410821</v>
       </c>
-      <c r="K7" s="4">
-        <f>(F7-J7)/F7</f>
+      <c r="L7" s="4">
+        <f t="shared" si="7"/>
         <v>1.0621242484970671E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <f>AVERAGE(C2:C7)</f>
         <v>14.25</v>
       </c>
-      <c r="D8" s="3">
-        <f>AVERAGE(D2:D7)</f>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3">
+        <f>AVERAGE(E2:E7)</f>
         <v>354.56735279430313</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E3:E8" si="0">9.9/($B$10-1)</f>
+      <c r="F8">
+        <f t="shared" ref="F8" si="10">9.9/($B$10-1)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -888,7 +924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -896,7 +932,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -904,8 +940,314 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <f>$B17*10</f>
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E22" si="11">5000/C17</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F22" si="12">9.9/($B$10-1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17:G22" si="13">E17/$B$10</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:H22" si="14">(G17-1)*$B$12</f>
+        <v>3.3266666666666662</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I22" si="15">1024*$B$12*(G17-1)/$B$13</f>
+        <v>170.3253333333333</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J22" si="16">_xlfn.FLOOR.MATH(I17)</f>
+        <v>170</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K22" si="17">1+ ((J17/1024)*$B$13)/$B$12</f>
+        <v>1.6653932865731462</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" ref="L17:L22" si="18">(G17-K17)/G17</f>
+        <v>7.6402805611217603E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C22" si="19">$B18*10</f>
+        <v>23.5</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7">
+        <f t="shared" si="11"/>
+        <v>212.7659574468085</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="13"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="14"/>
+        <v>5.6270212765957446</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="15"/>
+        <v>288.10348936170215</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="16"/>
+        <v>288</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>2.1272545090180359</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="18"/>
+        <v>1.9038076152309903E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7">
+        <f t="shared" si="11"/>
+        <v>185.18518518518519</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="13"/>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2507407407407412</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="15"/>
+        <v>217.63792592592594</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>217</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>1.8493549599198396</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="18"/>
+        <v>1.3483216432866429E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7">
+        <f t="shared" si="11"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="14"/>
+        <v>3.3266666666666662</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="15"/>
+        <v>170.3253333333333</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>1.6653932865731462</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="18"/>
+        <v>7.6402805611217603E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>250</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="19"/>
+        <v>32.5</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7">
+        <f t="shared" si="11"/>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="13"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="14"/>
+        <v>2.6869230769230765</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="15"/>
+        <v>137.57046153846153</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="16"/>
+        <v>137</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>1.5362287074148298</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="18"/>
+        <v>1.4513401803605719E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7">
+        <f t="shared" si="11"/>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="13"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="14"/>
+        <v>3.9207142857142863</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="15"/>
+        <v>200.74057142857146</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>1.7828156312625252</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="18"/>
+        <v>1.6232464929859525E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L7">
     <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,7 +1482,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1506,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.0118700000000005E-4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1184,8 +1526,8 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <f>(B3*C3+B4)*C4 + B5 +B6</f>
-        <v>40.057900000000004</v>
+        <f>((B2+B3)*C3+B4)*C4 + B5 +B6</f>
+        <v>40.343905662000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,14 +1538,14 @@
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4">
         <f>5000000/F3</f>
-        <v>124819.32402846878</v>
+        <v>123934.45597185969</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1221,7 +1563,7 @@
       </c>
       <c r="F5">
         <f>LOG(F4,2)</f>
-        <v>16.929481778203463</v>
+        <v>16.919217812432162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,13 +1583,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB290-A57C-40B1-A81B-7383900C8353}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1262,54 +1604,54 @@
       <c r="A2" s="1">
         <v>0.15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <f>(A2/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>1.201737E-3</v>
+        <v>1.21031716986E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>(A3/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>1.6023160000000002E-2</v>
+        <v>1.6137562264800002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <f>(A4/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>0.1602316</v>
+        <v>0.16137562264800001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <f>(A5/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>0.36052110000000004</v>
+        <v>0.36309515095800005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>250</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <f>(A6/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>2.0028950000000001</v>
+        <v>2.0171952831000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f>(A7/'PP Noise Estimate'!$F$4)*1000</f>
-        <v>24.034740000000003</v>
+        <v>24.206343397200001</v>
       </c>
     </row>
   </sheetData>

--- a/2.2 Measurement Chain/signal-conditioning_calc.xlsx
+++ b/2.2 Measurement Chain/signal-conditioning_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\2.2 Measurement Chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C184699A-4379-4A02-9C13-90E9D73EB47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB94E83-598B-45D5-8FB4-E242A781EFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,35 +814,35 @@
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <f>5000/C7</f>
+        <f t="shared" ref="D7:D12" si="0">5000/C7</f>
         <v>333.33333333333331</v>
       </c>
       <c r="E7">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" ref="E7:E13" si="1">9.9/($B$1-1)</f>
         <v>0.1</v>
       </c>
       <c r="F7" s="5">
-        <f>D7/$B$1</f>
+        <f t="shared" ref="F7:F12" si="2">D7/$B$1</f>
         <v>3.333333333333333</v>
       </c>
       <c r="G7" s="5">
-        <f>(F7-1)*$B$2</f>
+        <f t="shared" ref="G7:G12" si="3">(F7-1)*$B$2</f>
         <v>11.643333333333333</v>
       </c>
       <c r="H7">
-        <f>1024*$B$2*(F7-1)/$B$3</f>
+        <f t="shared" ref="H7:H12" si="4">1024*$B$2*(F7-1)/$B$3</f>
         <v>596.13866666666661</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I12" si="0">_xlfn.FLOOR.MATH(H7)</f>
+        <f t="shared" ref="I7:I12" si="5">_xlfn.FLOOR.MATH(H7)</f>
         <v>596</v>
       </c>
       <c r="J7">
-        <f>1+ ((I7/1024)*$B$3)/$B$2</f>
+        <f t="shared" ref="J7:J12" si="6">1+ ((I7/1024)*$B$3)/$B$2</f>
         <v>3.3327905811623246</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K7:K12" si="1">(F7-J7)/F7</f>
+        <f t="shared" ref="K7:K12" si="7">(F7-J7)/F7</f>
         <v>1.6282565130252281E-4</v>
       </c>
     </row>
@@ -854,39 +854,39 @@
         <v>2.35</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C12" si="2">$B8*5</f>
+        <f t="shared" ref="C8:C12" si="8">$B8*5</f>
         <v>11.75</v>
       </c>
       <c r="D8" s="6">
-        <f>5000/C8</f>
+        <f t="shared" si="0"/>
         <v>425.531914893617</v>
       </c>
       <c r="E8">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="F8" s="5">
-        <f>D8/$B$1</f>
+        <f t="shared" si="2"/>
         <v>4.2553191489361701</v>
       </c>
       <c r="G8" s="5">
-        <f>(F8-1)*$B$2</f>
+        <f t="shared" si="3"/>
         <v>16.244042553191491</v>
       </c>
       <c r="H8">
-        <f>1024*$B$2*(F8-1)/$B$3</f>
+        <f t="shared" si="4"/>
         <v>831.69497872340435</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>831</v>
       </c>
       <c r="J8">
-        <f>1+ ((I8/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="6"/>
         <v>4.2525989478957911</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.3924724448908069E-4</v>
       </c>
     </row>
@@ -898,39 +898,39 @@
         <v>2.7</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="8"/>
+        <v>13.5</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>370.37037037037038</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="D9" s="6">
-        <f>5000/C9</f>
-        <v>370.37037037037038</v>
-      </c>
-      <c r="E9">
-        <f>9.9/($B$1-1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="5">
-        <f>D9/$B$1</f>
         <v>3.7037037037037037</v>
       </c>
       <c r="G9" s="5">
-        <f>(F9-1)*$B$2</f>
+        <f t="shared" si="3"/>
         <v>13.491481481481483</v>
       </c>
       <c r="H9">
-        <f>1024*$B$2*(F9-1)/$B$3</f>
+        <f t="shared" si="4"/>
         <v>690.76385185185188</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>690</v>
       </c>
       <c r="J9">
-        <f>1+ ((I9/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="6"/>
         <v>3.7007139278557113</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.0723947895795507E-4</v>
       </c>
     </row>
@@ -942,39 +942,39 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <f>5000/C10</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="E10">
-        <f>9.9/($B$1-1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="5">
-        <f>D10/$B$1</f>
         <v>3.333333333333333</v>
       </c>
       <c r="G10" s="5">
-        <f>(F10-1)*$B$2</f>
+        <f t="shared" si="3"/>
         <v>11.643333333333333</v>
       </c>
       <c r="H10">
-        <f>1024*$B$2*(F10-1)/$B$3</f>
+        <f t="shared" si="4"/>
         <v>596.13866666666661</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
       <c r="J10">
-        <f>1+ ((I10/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="6"/>
         <v>3.3327905811623246</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.6282565130252281E-4</v>
       </c>
     </row>
@@ -986,39 +986,39 @@
         <v>3.25</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="8"/>
+        <v>16.25</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>307.69230769230768</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>16.25</v>
-      </c>
-      <c r="D11" s="6">
-        <f>5000/C11</f>
-        <v>307.69230769230768</v>
-      </c>
-      <c r="E11">
-        <f>9.9/($B$1-1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="5">
-        <f>D11/$B$1</f>
         <v>3.0769230769230766</v>
       </c>
       <c r="G11" s="5">
-        <f>(F11-1)*$B$2</f>
+        <f t="shared" si="3"/>
         <v>10.363846153846152</v>
       </c>
       <c r="H11">
-        <f>1024*$B$2*(F11-1)/$B$3</f>
+        <f t="shared" si="4"/>
         <v>530.628923076923</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>530</v>
       </c>
       <c r="J11">
-        <f>1+ ((I11/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="6"/>
         <v>3.0744614228456912</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.0003757515025866E-4</v>
       </c>
     </row>
@@ -1030,39 +1030,39 @@
         <v>2.8</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="D12" s="6">
-        <f>5000/C12</f>
-        <v>357.14285714285717</v>
-      </c>
-      <c r="E12">
-        <f>9.9/($B$1-1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="5">
-        <f>D12/$B$1</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="G12" s="5">
-        <f>(F12-1)*$B$2</f>
+        <f t="shared" si="3"/>
         <v>12.831428571428573</v>
       </c>
       <c r="H12">
-        <f>1024*$B$2*(F12-1)/$B$3</f>
+        <f t="shared" si="4"/>
         <v>656.96914285714297</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>656</v>
       </c>
       <c r="J12">
-        <f>1+ ((I12/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="6"/>
         <v>3.5676352705410821</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.0621242484970671E-3</v>
       </c>
     </row>
@@ -1083,31 +1083,31 @@
         <v>354.56735279430313</v>
       </c>
       <c r="E13" s="11">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:K13" si="3">9.9/($B$1-1)</f>
+        <f t="shared" ref="F13:K13" si="9">9.9/($B$1-1)</f>
         <v>0.1</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1169,35 +1169,35 @@
         <v>30</v>
       </c>
       <c r="D18" s="6">
-        <f>5000/C18</f>
+        <f t="shared" ref="D18:D24" si="10">5000/C18</f>
         <v>166.66666666666666</v>
       </c>
       <c r="E18">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" ref="E18:E23" si="11">9.9/($B$1-1)</f>
         <v>0.1</v>
       </c>
       <c r="F18" s="5">
-        <f>D18/$B$1</f>
+        <f t="shared" ref="F18:F24" si="12">D18/$B$1</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="G18" s="5">
-        <f>(F18-1)*$B$2</f>
+        <f t="shared" ref="G18:G24" si="13">(F18-1)*$B$2</f>
         <v>3.3266666666666662</v>
       </c>
       <c r="H18">
-        <f>1024*$B$2*(F18-1)/$B$3</f>
+        <f t="shared" ref="H18:H24" si="14">1024*$B$2*(F18-1)/$B$3</f>
         <v>170.3253333333333</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I24" si="4">_xlfn.FLOOR.MATH(H18)</f>
+        <f t="shared" ref="I18:I24" si="15">_xlfn.FLOOR.MATH(H18)</f>
         <v>170</v>
       </c>
       <c r="J18">
-        <f>1+ ((I18/1024)*$B$3)/$B$2</f>
+        <f t="shared" ref="J18:J24" si="16">1+ ((I18/1024)*$B$3)/$B$2</f>
         <v>1.6653932865731462</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:K24" si="5">(F18-J18)/F18</f>
+        <f t="shared" ref="K18:K24" si="17">(F18-J18)/F18</f>
         <v>7.6402805611217603E-4</v>
       </c>
     </row>
@@ -1209,39 +1209,39 @@
         <v>2.35</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C23" si="6">$B19*10</f>
+        <f t="shared" ref="C19:C23" si="18">$B19*10</f>
         <v>23.5</v>
       </c>
       <c r="D19" s="6">
-        <f>5000/C19</f>
+        <f t="shared" si="10"/>
         <v>212.7659574468085</v>
       </c>
       <c r="E19">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F19" s="5">
-        <f>D19/$B$1</f>
+        <f t="shared" si="12"/>
         <v>2.1276595744680851</v>
       </c>
       <c r="G19" s="5">
-        <f>(F19-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>5.6270212765957446</v>
       </c>
       <c r="H19">
-        <f>1024*$B$2*(F19-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>288.10348936170215</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="J19">
-        <f>1+ ((I19/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>2.1272545090180359</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9038076152309903E-4</v>
       </c>
     </row>
@@ -1253,39 +1253,39 @@
         <v>2.7</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="D20" s="6">
-        <f>5000/C20</f>
+        <f t="shared" si="10"/>
         <v>185.18518518518519</v>
       </c>
       <c r="E20">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F20" s="5">
-        <f>D20/$B$1</f>
+        <f t="shared" si="12"/>
         <v>1.8518518518518519</v>
       </c>
       <c r="G20" s="5">
-        <f>(F20-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>4.2507407407407412</v>
       </c>
       <c r="H20">
-        <f>1024*$B$2*(F20-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>217.63792592592594</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>217</v>
       </c>
       <c r="J20">
-        <f>1+ ((I20/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>1.8493549599198396</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.3483216432866429E-3</v>
       </c>
     </row>
@@ -1297,39 +1297,39 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="D21" s="6">
-        <f>5000/C21</f>
+        <f t="shared" si="10"/>
         <v>166.66666666666666</v>
       </c>
       <c r="E21">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F21" s="5">
-        <f>D21/$B$1</f>
+        <f t="shared" si="12"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="G21" s="5">
-        <f>(F21-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>3.3266666666666662</v>
       </c>
       <c r="H21">
-        <f>1024*$B$2*(F21-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>170.3253333333333</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>170</v>
       </c>
       <c r="J21">
-        <f>1+ ((I21/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>1.6653932865731462</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.6402805611217603E-4</v>
       </c>
     </row>
@@ -1341,39 +1341,39 @@
         <v>3.25</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>32.5</v>
       </c>
       <c r="D22" s="6">
-        <f>5000/C22</f>
+        <f t="shared" si="10"/>
         <v>153.84615384615384</v>
       </c>
       <c r="E22">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F22" s="5">
-        <f>D22/$B$1</f>
+        <f t="shared" si="12"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="G22" s="5">
-        <f>(F22-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>2.6869230769230765</v>
       </c>
       <c r="H22">
-        <f>1024*$B$2*(F22-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>137.57046153846153</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>137</v>
       </c>
       <c r="J22">
-        <f>1+ ((I22/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>1.5362287074148298</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4513401803605719E-3</v>
       </c>
     </row>
@@ -1385,39 +1385,39 @@
         <v>2.8</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="D23" s="6">
-        <f>5000/C23</f>
+        <f t="shared" si="10"/>
         <v>178.57142857142858</v>
       </c>
       <c r="E23">
-        <f>9.9/($B$1-1)</f>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="F23" s="5">
-        <f>D23/$B$1</f>
+        <f t="shared" si="12"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="G23" s="5">
-        <f>(F23-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>3.9207142857142863</v>
       </c>
       <c r="H23">
-        <f>1024*$B$2*(F23-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>200.74057142857146</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="J23">
-        <f>1+ ((I23/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>1.7828156312625252</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6232464929859525E-3</v>
       </c>
     </row>
@@ -1434,31 +1434,31 @@
         <v>28.5</v>
       </c>
       <c r="D24" s="16">
-        <f>5000/C24</f>
+        <f t="shared" si="10"/>
         <v>175.43859649122808</v>
       </c>
       <c r="F24" s="17">
-        <f>D24/$B$1</f>
+        <f t="shared" si="12"/>
         <v>1.7543859649122808</v>
       </c>
       <c r="G24" s="17">
-        <f>(F24-1)*$B$2</f>
+        <f t="shared" si="13"/>
         <v>3.7643859649122815</v>
       </c>
       <c r="H24" s="14">
-        <f>1024*$B$2*(F24-1)/$B$3</f>
+        <f t="shared" si="14"/>
         <v>192.7365614035088</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>192</v>
       </c>
       <c r="J24" s="14">
-        <f>1+ ((I24/1024)*$B$3)/$B$2</f>
+        <f t="shared" si="16"/>
         <v>1.751503006012024</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6432865731463785E-3</v>
       </c>
     </row>
